--- a/examples/job_300_guests.xlsx
+++ b/examples/job_300_guests.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kfrb/Code/HappyScheduler/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kfrb/Code/RoomJuggler/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C3FAD-A097-DF40-B1D1-2FF0854FA6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEE1F7-BE06-2142-9AFD-ED5DC711CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="33520" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guests" sheetId="1" r:id="rId1"/>
     <sheet name="rooms" sheetId="2" r:id="rId2"/>
     <sheet name="wishes" sheetId="3" r:id="rId3"/>
-    <sheet name="results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1452,7 +1451,7 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +3887,7 @@
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4362,7 +4361,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -5048,96 +5047,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/examples/job_300_guests.xlsx
+++ b/examples/job_300_guests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kfrb/Code/RoomJuggler/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEE1F7-BE06-2142-9AFD-ED5DC711CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7514E24C-ECBD-6E44-A62E-E34533CA3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,8 +1441,8 @@
   </sheetPr>
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3876,7 +3876,7 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -4361,8 +4361,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
